--- a/_BACKUP/_backup_info.xlsx
+++ b/_BACKUP/_backup_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlffl\OneDrive\문서\GitHub\image\_BACKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4D066CA252ABDACC1048F769646C5F48B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD98263A-C5CC-48BC-A317-27037163FDCD}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4D066CA252ABDACC1048F769646C5F48B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDFA7CB6-9784-49AE-8CB5-98468473006D}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="5025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,22 @@
   </si>
   <si>
     <t>Train Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfc_0125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfc_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -395,7 +411,7 @@
     <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -409,10 +425,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -425,17 +444,31 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/_BACKUP/_backup_info.xlsx
+++ b/_BACKUP/_backup_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlffl\OneDrive\문서\GitHub\image\_BACKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4D066CA252ABDACC1048F769646C5F48B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDFA7CB6-9784-49AE-8CB5-98468473006D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D066CA252ABDACC1048F769646C5F48B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB0D96E5-C8CD-44BC-B376-99F0B9978217}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5925" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15030" yWindow="-5100" windowWidth="12150" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>DNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfc_0130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(no backup) - Chun edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,6 +479,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
